--- a/example_data/EPA/label_corrected/093365-00002-20180925_2018-12-10_111204.xlsx
+++ b/example_data/EPA/label_corrected/093365-00002-20180925_2018-12-10_111204.xlsx
@@ -658,7 +658,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mixing || 135_Product_Information</t>
+          <t>mixing || 135_product_information</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions || 172_Sensitive_Areas</t>
+          <t>172_sensitive_areas || application instructions || off target movement</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -6882,7 +6882,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation</t>
+          <t>irrigation || chemigation</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures</t>
+          <t>safety procedures || chemigation</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
@@ -7383,7 +7383,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Chemigation || Application Instructions</t>
+          <t>application instructions || chemigation</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Irrigation || Use Restrictions</t>
+          <t>use restrictions || irrigation</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G247" t="inlineStr"/>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G251" t="inlineStr"/>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G254" t="inlineStr"/>
@@ -8265,7 +8265,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G256" t="inlineStr"/>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G261" t="inlineStr"/>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G262" t="inlineStr"/>
@@ -8522,7 +8522,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G263" t="inlineStr"/>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G265" t="inlineStr"/>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G267" t="inlineStr"/>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G284" t="inlineStr"/>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G290" t="inlineStr"/>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G291" t="inlineStr"/>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G292" t="inlineStr"/>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G294" t="inlineStr"/>
